--- a/data/ron_sender_critical_death.xlsx
+++ b/data/ron_sender_critical_death.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox (Weizmann Institute)\git\covid19model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53874D94-A27D-481A-AD06-D3074A8D04D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3684594-553F-4D63-8B5C-297A576203B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{D94DBE97-93F2-45EE-9470-CBF0EF04E7BC}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B25776-2C4E-43EA-BC0D-82E30C3A9192}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -419,13 +419,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -503,13 +503,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -517,13 +517,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -531,10 +531,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -559,13 +559,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -573,13 +573,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>5</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -587,13 +587,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
         <v>6</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -615,27 +615,27 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -657,13 +657,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B19">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -671,83 +671,83 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B20">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B21">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B22">
+        <v>39</v>
+      </c>
+      <c r="C22">
         <v>46</v>
       </c>
-      <c r="C22">
-        <v>56</v>
-      </c>
       <c r="D22">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B23">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B24">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B25">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C25">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <v>12</v>
@@ -755,225 +755,239 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C26">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C27">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B28">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C28">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C29">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C30">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C31">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D31">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D32">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B33">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C33">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D33">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B34">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C34">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D34">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B35">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C35">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D35">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B36">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C36">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="D36">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B37">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C37">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="D37">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B38">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C38">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="D38">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B39">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C39">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D39">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B40">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C40">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D40">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B41">
         <v>181</v>
       </c>
       <c r="C41">
+        <v>343</v>
+      </c>
+      <c r="D41">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B42">
+        <v>181</v>
+      </c>
+      <c r="C42">
         <v>351</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>117</v>
       </c>
     </row>
